--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H2">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J2">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>17.46552162023084</v>
+        <v>28.65052219268</v>
       </c>
       <c r="R2">
-        <v>17.46552162023084</v>
+        <v>257.85469973412</v>
       </c>
       <c r="S2">
-        <v>0.007738195167868422</v>
+        <v>0.01075069924597195</v>
       </c>
       <c r="T2">
-        <v>0.007738195167868422</v>
+        <v>0.01075069924597194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H3">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J3">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>1078.137167934502</v>
+        <v>1399.994181674777</v>
       </c>
       <c r="R3">
-        <v>1078.137167934502</v>
+        <v>12599.94763507299</v>
       </c>
       <c r="S3">
-        <v>0.4776745868011379</v>
+        <v>0.5253278209756868</v>
       </c>
       <c r="T3">
-        <v>0.4776745868011379</v>
+        <v>0.5253278209756866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5820229055457</v>
+        <v>13.739149</v>
       </c>
       <c r="H4">
-        <v>10.5820229055457</v>
+        <v>41.217447</v>
       </c>
       <c r="I4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="J4">
-        <v>0.5545903607024369</v>
+        <v>0.6130043224686931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>156.1375063297575</v>
+        <v>205.006609713703</v>
       </c>
       <c r="R4">
-        <v>156.1375063297575</v>
+        <v>1845.059487423327</v>
       </c>
       <c r="S4">
-        <v>0.06917757873343071</v>
+        <v>0.07692580224703441</v>
       </c>
       <c r="T4">
-        <v>0.06917757873343071</v>
+        <v>0.07692580224703439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H5">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J5">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>6.405922129156536</v>
+        <v>8.412257341733332</v>
       </c>
       <c r="R5">
-        <v>6.405922129156536</v>
+        <v>75.71031607559999</v>
       </c>
       <c r="S5">
-        <v>0.002838178941541704</v>
+        <v>0.003156579417732242</v>
       </c>
       <c r="T5">
-        <v>0.002838178941541704</v>
+        <v>0.003156579417732241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H6">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J6">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>395.4340953858382</v>
+        <v>411.0609661483433</v>
       </c>
       <c r="R6">
-        <v>395.4340953858382</v>
+        <v>3699.54869533509</v>
       </c>
       <c r="S6">
-        <v>0.1751992452707903</v>
+        <v>0.1542447564864478</v>
       </c>
       <c r="T6">
-        <v>0.1751992452707903</v>
+        <v>0.1542447564864478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.88122474529224</v>
+        <v>4.034036666666666</v>
       </c>
       <c r="H7">
-        <v>3.88122474529224</v>
+        <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="J7">
-        <v>0.203410052186789</v>
+        <v>0.1799879973398545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>57.26738248862522</v>
+        <v>60.19326091405667</v>
       </c>
       <c r="R7">
-        <v>57.26738248862522</v>
+        <v>541.7393482265101</v>
       </c>
       <c r="S7">
-        <v>0.02537262797445699</v>
+        <v>0.0225866614356745</v>
       </c>
       <c r="T7">
-        <v>0.02537262797445699</v>
+        <v>0.02258666143567449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H8">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J8">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>7.621208950362467</v>
+        <v>9.675100024573332</v>
       </c>
       <c r="R8">
-        <v>7.621208950362467</v>
+        <v>87.07590022116</v>
       </c>
       <c r="S8">
-        <v>0.003376618434613404</v>
+        <v>0.003630443097663977</v>
       </c>
       <c r="T8">
-        <v>0.003376618434613404</v>
+        <v>0.003630443097663976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H9">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J9">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>470.4530911039728</v>
+        <v>472.7691750408943</v>
       </c>
       <c r="R9">
-        <v>470.4530911039728</v>
+        <v>4254.922575368049</v>
       </c>
       <c r="S9">
-        <v>0.2084368228700753</v>
+        <v>0.1773998805135038</v>
       </c>
       <c r="T9">
-        <v>0.2084368228700753</v>
+        <v>0.1773998805135038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.61754360587025</v>
+        <v>4.639623666666666</v>
       </c>
       <c r="H10">
-        <v>4.61754360587025</v>
+        <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="J10">
-        <v>0.2419995871107741</v>
+        <v>0.2070076801914524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>68.1317504625377</v>
+        <v>69.22943467974567</v>
       </c>
       <c r="R10">
-        <v>68.1317504625377</v>
+        <v>623.0649121177111</v>
       </c>
       <c r="S10">
-        <v>0.03018614580608548</v>
+        <v>0.02597735658028461</v>
       </c>
       <c r="T10">
-        <v>0.03018614580608548</v>
+        <v>0.0259773565802846</v>
       </c>
     </row>
   </sheetData>
